--- a/DEMOQA/src/test/Resources/TestData_RegistraionForm/DemoQA_RegistrationSuite.xlsx
+++ b/DEMOQA/src/test/Resources/TestData_RegistraionForm/DemoQA_RegistrationSuite.xlsx
@@ -41,7 +41,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>Registration001</t>
+    <t>RegistrationPage</t>
   </si>
 </sst>
 </file>
@@ -371,6 +371,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/DEMOQA/src/test/Resources/TestData_RegistraionForm/DemoQA_RegistrationSuite.xlsx
+++ b/DEMOQA/src/test/Resources/TestData_RegistraionForm/DemoQA_RegistrationSuite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/Desktop/SeleniumBootCamp/DEMOQA/src/test/Resources/TestData_RegistraionForm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/SeleniumBootCamp/DEMOQA/src/test/Resources/TestData_RegistraionForm/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="9220" yWindow="9360" windowWidth="10000" windowHeight="7180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SuiteName</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CustomerSuite</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>RegistrationPage</t>
+    <t>RegistrationSuite</t>
   </si>
 </sst>
 </file>
@@ -367,7 +361,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -385,19 +379,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
